--- a/MultiwellMapper/Map_Data.xlsx
+++ b/MultiwellMapper/Map_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365utsouthwestern-my.sharepoint.com/personal/sihan_wu_utsouthwestern_edu/Documents/ecDNA damage/MultiwellMapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC1048DDD9DC65A65ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{654028D2-72EA-4830-B6B4-8F6FC87E8EA4}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC1048DDD9DC65A65ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D8AE6F5-865C-40BB-843D-06AC73547E05}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="36555" windowHeight="18555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
   <si>
     <t>Negative</t>
   </si>
@@ -126,6 +126,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,7 +398,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +541,7 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,9 +746,7 @@
       <c r="H17" s="1">
         <v>2567</v>
       </c>
-      <c r="I17" s="1">
-        <v>1147</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1">
         <v>796</v>
       </c>
